--- a/data_14.xlsx
+++ b/data_14.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>7.096200975816103</v>
+        <v>7.102636851660721</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08807839169085567</v>
+        <v>0.08868068368384581</v>
       </c>
       <c r="D2" t="n">
-        <v>5.972227956059689</v>
+        <v>5.98786084616189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2361728373879175</v>
+        <v>0.23682874680707983</v>
       </c>
       <c r="F2" t="n">
         <v>0.05071973883614376</v>
@@ -132,7 +132,7 @@
         <v>10.298975439453901</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2549536695185528</v>
+        <v>0.2547852816304544</v>
       </c>
       <c r="D3" t="n">
         <v>9.312741114332368</v>
@@ -152,7 +152,7 @@
         <v>10.941719264871441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6569679387905916</v>
+        <v>0.6565340346856998</v>
       </c>
       <c r="D4" t="n">
         <v>10.899542297970997</v>
